--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf8-Fgfr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf8-Fgfr3.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.656156333333334</v>
+        <v>4.959409333333333</v>
       </c>
       <c r="N2">
-        <v>4.968469000000001</v>
+        <v>14.878228</v>
       </c>
       <c r="O2">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="P2">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
       <c r="Q2">
-        <v>0.2132787085024445</v>
+        <v>0.6386694276737778</v>
       </c>
       <c r="R2">
-        <v>1.919508376522</v>
+        <v>5.748024849064</v>
       </c>
       <c r="S2">
-        <v>0.6151212440816574</v>
+        <v>0.8271666313262851</v>
       </c>
       <c r="T2">
-        <v>0.6151212440816572</v>
+        <v>0.8271666313262852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>1.694632</v>
       </c>
       <c r="O3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="P3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="Q3">
         <v>0.07274452640177778</v>
       </c>
       <c r="R3">
-        <v>0.654700737616</v>
+        <v>0.6547007376159999</v>
       </c>
       <c r="S3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
       <c r="T3">
-        <v>0.2098038941373262</v>
+        <v>0.09421438109281059</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>1.414118</v>
       </c>
       <c r="O4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="P4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
       <c r="Q4">
         <v>0.06070305776488889</v>
@@ -694,10 +694,10 @@
         <v>0.546327519884</v>
       </c>
       <c r="S4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090437</v>
       </c>
       <c r="T4">
-        <v>0.1750748617810164</v>
+        <v>0.07861898758090438</v>
       </c>
     </row>
   </sheetData>
